--- a/deviation_template_1.xlsx
+++ b/deviation_template_1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mueller_admin.ZPIDNB21\Documents\Desktop\Rprojects\scripts\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mueller_admin.ZPIDNB21\Documents\Desktop\Rprojects\Deviation-Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305963A-65D6-4ED5-920C-84507EA4C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E500C929-D177-4464-832F-022FA805E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{3ABE3588-BC80-4670-849C-5B6B88C98BD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Deviation categories" sheetId="10" r:id="rId1"/>
-    <sheet name="Deviations in Title" sheetId="1" r:id="rId2"/>
+    <sheet name="Overview" sheetId="10" r:id="rId1"/>
+    <sheet name="Deviations in Titlepage" sheetId="1" r:id="rId2"/>
     <sheet name="Deviations in Introduction" sheetId="5" r:id="rId3"/>
     <sheet name="Deviations in Methods" sheetId="6" r:id="rId4"/>
     <sheet name="Deviations in Analyses" sheetId="4" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -85,9 +85,6 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>T1: Title tab T2: Contributors, Affiliations, and Persistent IDs tab T6: Duration of project tab T10: Data accessibility statement and planned repository tab T11: Code availability tab T12: Standard lab practices</t>
-  </si>
-  <si>
     <t>T1_1</t>
   </si>
   <si>
@@ -160,18 +157,6 @@
     <t>T12_4</t>
   </si>
   <si>
-    <t>Describe details of deviation(s)</t>
-  </si>
-  <si>
-    <t>Rationale for deviation</t>
-  </si>
-  <si>
-    <t>How might the results be different if you had/had not deviated?</t>
-  </si>
-  <si>
-    <t>Additional notes</t>
-  </si>
-  <si>
     <t>textareainput</t>
   </si>
   <si>
@@ -181,30 +166,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>T1: Title</t>
-  </si>
-  <si>
-    <t>T2: Contributors, Affiliations, and Persistent IDs</t>
-  </si>
-  <si>
-    <t>T6: Duration of project</t>
-  </si>
-  <si>
-    <t>T10: Data accessibility statement and planned repository</t>
-  </si>
-  <si>
-    <t>T11: Code availability</t>
-  </si>
-  <si>
-    <t>T12: Standard lab practices</t>
-  </si>
-  <si>
-    <t>No difference expected tab Sensitivity analyses show no differences tab Impact on results unclear (e.g. deviation in data collection) tab Other (please specify in "additional notes")</t>
-  </si>
-  <si>
-    <t>I1: Theoretical background tab I2: Objectives and Research question(s) tab I3: Hypothesis tab I4: Exploratory research questions</t>
-  </si>
-  <si>
     <t>I1_1</t>
   </si>
   <si>
@@ -253,21 +214,6 @@
     <t>I4_4</t>
   </si>
   <si>
-    <t xml:space="preserve"> I1: Theoretical background</t>
-  </si>
-  <si>
-    <t>I2: Objectives and Research question(s)</t>
-  </si>
-  <si>
-    <t>I3: Hypothesis</t>
-  </si>
-  <si>
-    <t>I4: Exploratory research questions</t>
-  </si>
-  <si>
-    <t>M3: Sample size, power and precision tab M4: Participant recruitment, selection, and compensation tab M5: Handling of participant drop-out tab M6: Masking of participants and researchers tab M7: Data cleaning and screening tab M8: Handling of missing data tab M10: Type of study and study design tab M11: Randomization of participants and/or experimental materials tab M12: Measured variables, manipulated variables, covariates tab M13: Study Materials tab M14: Study Procedures</t>
-  </si>
-  <si>
     <t>M3_1</t>
   </si>
   <si>
@@ -400,75 +346,6 @@
     <t>M14_4</t>
   </si>
   <si>
-    <t>Deviation in M3: Sample size, power and precision</t>
-  </si>
-  <si>
-    <t>Deviation in M4: Participant recruitment, selection, and compensation</t>
-  </si>
-  <si>
-    <t>Deviation in M5: Handling of participant drop-out</t>
-  </si>
-  <si>
-    <t>Deviation in M6: Masking of participants and researchers</t>
-  </si>
-  <si>
-    <t>Deviation in M7: Data cleaning and screening</t>
-  </si>
-  <si>
-    <t>Deviation in M8: Handling of missing data</t>
-  </si>
-  <si>
-    <t>Deviation in M10: Type of study and study design</t>
-  </si>
-  <si>
-    <t>Deviation in M11: Randomization of participants and/or experimental materials</t>
-  </si>
-  <si>
-    <t>Deviation in M12: Measured variables, manipulated variables, covariates</t>
-  </si>
-  <si>
-    <t>Deviation in M13: Study Materials</t>
-  </si>
-  <si>
-    <t>Deviation in M14: Study Procedures</t>
-  </si>
-  <si>
-    <t>M3: Sample size, power and precision</t>
-  </si>
-  <si>
-    <t>M4: Participant recruitment, selection, and compensation</t>
-  </si>
-  <si>
-    <t>M5: Handling of participant drop-out</t>
-  </si>
-  <si>
-    <t>M6: Masking of participants and researchers</t>
-  </si>
-  <si>
-    <t>M7: Data cleaning and screening</t>
-  </si>
-  <si>
-    <t>M8: Handling of missing data</t>
-  </si>
-  <si>
-    <t>M10: Type of study and study design</t>
-  </si>
-  <si>
-    <t>M11: Randomization of participants and/or experimental materials</t>
-  </si>
-  <si>
-    <t>M12: Measured variables, manipulated variables, covariates</t>
-  </si>
-  <si>
-    <t>M13: Study Materials</t>
-  </si>
-  <si>
-    <t>M14: Study Procedures</t>
-  </si>
-  <si>
-    <t>AP1: Criteria for post-data collection exclusion of participants tab AP2: Criteria for post-data collection exclusions on trial level tab AP3: Data preprocessing tab AP4: Reliability analysis tab AP5: Descriptive statistics tab AP6: Statistical models tab AP7: Inference criteria tab AP8: Exploratory analysis</t>
-  </si>
-  <si>
     <t>AP1_1</t>
   </si>
   <si>
@@ -565,54 +442,6 @@
     <t>AP8_4</t>
   </si>
   <si>
-    <t>Deviation in AP1: Criteria for post-data collection exclusion of participants</t>
-  </si>
-  <si>
-    <t>Deviation in AP2: Criteria for post-data collection exclusions on trial level</t>
-  </si>
-  <si>
-    <t>Deviation in AP3: Data preprocessing</t>
-  </si>
-  <si>
-    <t>Deviation in AP4: Reliability analysis</t>
-  </si>
-  <si>
-    <t>Deviation in AP5: Descriptive statistics</t>
-  </si>
-  <si>
-    <t>Deviation in AP6: Statistical models</t>
-  </si>
-  <si>
-    <t>Deviation in AP7: Inference criteria</t>
-  </si>
-  <si>
-    <t>Deviation in AP8: Exploratory analysis</t>
-  </si>
-  <si>
-    <t>AP1: Criteria for post-data collection exclusion of participants</t>
-  </si>
-  <si>
-    <t>AP2: Criteria for post-data collection exclusions on trial level</t>
-  </si>
-  <si>
-    <t>AP3: Data preprocessing</t>
-  </si>
-  <si>
-    <t>AP4: Reliability analysis</t>
-  </si>
-  <si>
-    <t>AP5: Descriptive statistics</t>
-  </si>
-  <si>
-    <t>AP6: Statistical models</t>
-  </si>
-  <si>
-    <t>AP7: Inference criteria</t>
-  </si>
-  <si>
-    <t>AP8: Exploratory analysis</t>
-  </si>
-  <si>
     <t>O1_1</t>
   </si>
   <si>
@@ -625,9 +454,6 @@
     <t>O1_4</t>
   </si>
   <si>
-    <t>Other deviations</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
@@ -658,9 +484,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
     <t>Introduction deviations</t>
   </si>
   <si>
@@ -679,9 +502,6 @@
     <t>Analyses</t>
   </si>
   <si>
-    <t>Titlepage tab Introduction tab Methods tab Analyses tab Uncategorized/Other</t>
-  </si>
-  <si>
     <t>Uncategorized/Other</t>
   </si>
   <si>
@@ -742,9 +562,6 @@
     <t xml:space="preserve">Specify where you deviated from your preregistration in the analyses section. Checked boxes trigger follow-up items. </t>
   </si>
   <si>
-    <t xml:space="preserve">Describe details of deviation(s). </t>
-  </si>
-  <si>
     <t>What: Title</t>
   </si>
   <si>
@@ -841,18 +658,6 @@
     <t>Other comments: Objectives and Research question(s)</t>
   </si>
   <si>
-    <t>What: Hypothesis</t>
-  </si>
-  <si>
-    <t>Why: Hypothesis</t>
-  </si>
-  <si>
-    <t>How: Hypothesis</t>
-  </si>
-  <si>
-    <t>Other comments: Hypothesis</t>
-  </si>
-  <si>
     <t>What: Exploratory research questions</t>
   </si>
   <si>
@@ -865,13 +670,391 @@
     <t>Other comments: Exploratory research questions</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe what changed since your preregistration. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain why you made the changes. </t>
-  </si>
-  <si>
     <t>Select how the results of your study might have been different if you had/had not deviated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe any deviation from your preregistration. </t>
+  </si>
+  <si>
+    <t>Explain your rationale for the deviation(s).</t>
+  </si>
+  <si>
+    <t>What: Hypotheses</t>
+  </si>
+  <si>
+    <t>Why: Hypotheses</t>
+  </si>
+  <si>
+    <t>How: Hypotheses</t>
+  </si>
+  <si>
+    <t>Other comments: Hypotheses</t>
+  </si>
+  <si>
+    <t>Titlepage (e.g., authors, code availability) tab Introduction (e.g., theoretical background, exploratory research questions) tab Methods (e.g., sample size, study procedures) tab Analyses (e.g., data preprocessing, statistical models) tab Uncategorized/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain your rationale for the deviation(s). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe any deviation from your preregistration. . </t>
+  </si>
+  <si>
+    <t>No difference expected tab Sensitivity analyses show no differences tab Impact on results unclear (e.g. deviation in data collection) tab Other (please specify in "If you have additional comments, use the box below.")</t>
+  </si>
+  <si>
+    <t>If you have additional comments, use the box below.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Contributors, Affiliations, and Persistent IDs</t>
+  </si>
+  <si>
+    <t>Duration of project</t>
+  </si>
+  <si>
+    <t>Data accessibility statement and planned repository</t>
+  </si>
+  <si>
+    <t>Code availability</t>
+  </si>
+  <si>
+    <t>Title tab Contributors, Affiliations, and Persistent IDs tab Duration of project tab Data accessibility statement and planned repository tab Code availability tab Standard lab practices</t>
+  </si>
+  <si>
+    <t>Standard lab practices</t>
+  </si>
+  <si>
+    <t>Theoretical background</t>
+  </si>
+  <si>
+    <t>Theoretical background tab Objectives and Research question(s) tab Hypotheses tab Exploratory research questions</t>
+  </si>
+  <si>
+    <t>Objectives and Research question(s)</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Exploratory research questions</t>
+  </si>
+  <si>
+    <t>Sample size, power and precision</t>
+  </si>
+  <si>
+    <t>Participant recruitment, selection, and compensation</t>
+  </si>
+  <si>
+    <t>Handling of participant drop-out</t>
+  </si>
+  <si>
+    <t>Masking of participants and researchers</t>
+  </si>
+  <si>
+    <t>Data cleaning and screening</t>
+  </si>
+  <si>
+    <t>Handling of missing data</t>
+  </si>
+  <si>
+    <t>Type of study and study design</t>
+  </si>
+  <si>
+    <t>Randomization of participants and/or experimental materials</t>
+  </si>
+  <si>
+    <t>Measured variables, manipulated variables, covariates</t>
+  </si>
+  <si>
+    <t>Study Materials</t>
+  </si>
+  <si>
+    <t>Sample size, power and precision tab Participant recruitment, selection, and compensation tab Handling of participant drop-out tab Masking of participants and researchers tab Data cleaning and screening tab Handling of missing data tab Type of study and study design tab Randomization of participants and/or experimental materials tab Measured variables, manipulated variables, covariates tab Study Materials tab Study Procedures</t>
+  </si>
+  <si>
+    <t>Study Procedures</t>
+  </si>
+  <si>
+    <t>Criteria for post-data collection exclusion of participants</t>
+  </si>
+  <si>
+    <t>Criteria for post-data collection exclusions on trial level</t>
+  </si>
+  <si>
+    <t>Data preprocessing</t>
+  </si>
+  <si>
+    <t>Reliability analysis</t>
+  </si>
+  <si>
+    <t>Descriptive statistics</t>
+  </si>
+  <si>
+    <t>Statistical models</t>
+  </si>
+  <si>
+    <t>Inference criteria</t>
+  </si>
+  <si>
+    <t>Criteria for post-data collection exclusion of participants tab Criteria for post-data collection exclusions on trial level tab Data preprocessing tab Reliability analysis tab Descriptive statistics tab Statistical models tab Inference criteria tab Exploratory analysis</t>
+  </si>
+  <si>
+    <t>Exploratory analysis</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Indicate for each deviation mentioned above how the results might have been different if you had/had not deviated (no difference expected, sensitivity analyses show no differences, impact on results unclear, etc.)</t>
+  </si>
+  <si>
+    <t>What: Deviation in Sample size, power and precision</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Sample size, power and precision</t>
+  </si>
+  <si>
+    <t>How: Deviation in Sample size, power and precision</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Sample size, power and precision</t>
+  </si>
+  <si>
+    <t>What: Deviation in Participant recruitment, selection, and compensation</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Participant recruitment, selection, and compensation</t>
+  </si>
+  <si>
+    <t>How: Deviation in Participant recruitment, selection, and compensation</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Participant recruitment, selection, and compensation</t>
+  </si>
+  <si>
+    <t>What: Deviation in Handling of participant drop-out</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Handling of participant drop-out</t>
+  </si>
+  <si>
+    <t>How: Deviation in Handling of participant drop-out</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Handling of participant drop-out</t>
+  </si>
+  <si>
+    <t>What: Deviation in Masking of participants and researchers</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Masking of participants and researchers</t>
+  </si>
+  <si>
+    <t>How: Deviation in Masking of participants and researchers</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Masking of participants and researchers</t>
+  </si>
+  <si>
+    <t>What: Deviation in Data cleaning and screening</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Data cleaning and screening</t>
+  </si>
+  <si>
+    <t>How: Deviation in Data cleaning and screening</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Data cleaning and screening</t>
+  </si>
+  <si>
+    <t>What: Deviation in Handling of missing data</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Handling of missing data</t>
+  </si>
+  <si>
+    <t>How: Deviation in Handling of missing data</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Handling of missing data</t>
+  </si>
+  <si>
+    <t>What: Deviation in Type of study and study design</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Type of study and study design</t>
+  </si>
+  <si>
+    <t>How: Deviation in Type of study and study design</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Type of study and study design</t>
+  </si>
+  <si>
+    <t>What: Deviation in Randomization of participants and/or experimental materials</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Randomization of participants and/or experimental materials</t>
+  </si>
+  <si>
+    <t>How: Deviation in Randomization of participants and/or experimental materials</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Randomization of participants and/or experimental materials</t>
+  </si>
+  <si>
+    <t>What: Deviation in Measured variables, manipulated variables, covariates</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Measured variables, manipulated variables, covariates</t>
+  </si>
+  <si>
+    <t>How: Deviation in Measured variables, manipulated variables, covariates</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Measured variables, manipulated variables, covariates</t>
+  </si>
+  <si>
+    <t>What: Deviation in Study Materials</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Study Materials</t>
+  </si>
+  <si>
+    <t>How: Deviation in Study Materials</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Study Materials</t>
+  </si>
+  <si>
+    <t>What: Deviation in Study Procedures</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Study Procedures</t>
+  </si>
+  <si>
+    <t>How: Deviation in Study Procedures</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Study Procedures</t>
+  </si>
+  <si>
+    <t>What: Deviation in Criteria for post-data collection exclusion of participants</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Criteria for post-data collection exclusion of participants</t>
+  </si>
+  <si>
+    <t>How: Deviation in Criteria for post-data collection exclusion of participants</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Criteria for post-data collection exclusion of participants</t>
+  </si>
+  <si>
+    <t>What: Deviation in Criteria for post-data collection exclusions on trial level</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Criteria for post-data collection exclusions on trial level</t>
+  </si>
+  <si>
+    <t>How: Deviation in Criteria for post-data collection exclusions on trial level</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Criteria for post-data collection exclusions on trial level</t>
+  </si>
+  <si>
+    <t>What: Deviation in Data preprocessing</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Data preprocessing</t>
+  </si>
+  <si>
+    <t>How: Deviation in Data preprocessing</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Data preprocessing</t>
+  </si>
+  <si>
+    <t>What: Deviation in Reliability analysis</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Reliability analysis</t>
+  </si>
+  <si>
+    <t>How: Deviation in Reliability analysis</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Reliability analysis</t>
+  </si>
+  <si>
+    <t>What: Deviation in Descriptive statistics</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Descriptive statistics</t>
+  </si>
+  <si>
+    <t>How: Deviation in Descriptive statistics</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Descriptive statistics</t>
+  </si>
+  <si>
+    <t>What: Deviation in Statistical models</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Statistical models</t>
+  </si>
+  <si>
+    <t>How: Deviation in Statistical models</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Statistical models</t>
+  </si>
+  <si>
+    <t>What: Deviation in Inference criteria</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Inference criteria</t>
+  </si>
+  <si>
+    <t>How: Deviation in Inference criteria</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Inference criteria</t>
+  </si>
+  <si>
+    <t>What: Deviation in Exploratory analysis</t>
+  </si>
+  <si>
+    <t>Why: Deviation in Exploratory analysis</t>
+  </si>
+  <si>
+    <t>How: Deviation in Exploratory analysis</t>
+  </si>
+  <si>
+    <t>Other comments: Deviation in Exploratory analysis</t>
+  </si>
+  <si>
+    <t>What: Other deviations</t>
+  </si>
+  <si>
+    <t>Why: Other deviations</t>
+  </si>
+  <si>
+    <t>How: Other deviations</t>
+  </si>
+  <si>
+    <t>Other comments: Other deviations</t>
+  </si>
+  <si>
+    <t>This deviation checklist was created by Lisa Spitzer and Stefanie Mueller based on the structure proposed by van 't Veer et al. (2019). tab https://docs.google.com/document/d/1WKb2HAoSmgUndzcI1DDYuGyUpLFwcmuSn5OAIlI32KI/edit?pli=1#heading=h.2w0pr5u9buar.</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1440,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,39 +1489,39 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1534,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I26"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,693 +1582,690 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>198</v>
-      </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="I13" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I16" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I17" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="I21" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="I24" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2278,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I18"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,479 +2326,476 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>198</v>
-      </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="I13" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="I16" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="I17" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2631,10 +2808,13 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2676,1225 +2856,1225 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3907,12 +4087,13 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
@@ -3955,907 +4136,904 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>198</v>
-      </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
         <v>146</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
-      </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>329</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4865,15 +5043,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7015EA49-40CA-4F5F-9C9F-64831D3C4FBF}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
@@ -4916,126 +5095,143 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
